--- a/source_data_old/09_data.xlsx
+++ b/source_data_old/09_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step3_NewData\_Formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D76B7388-8086-4282-B87E-37CB8656E23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB24BFDF-F94E-44B6-A0C6-F558B28D9B3F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF54957-E097-4B9A-86D4-896BCD5BB7AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1349,24 +1349,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BA1410"/>
+  <dimension ref="A1:X1410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="69.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="23" max="23" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="86.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,37 +1455,8 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-    </row>
-    <row r="2" spans="1:53">
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>9</v>
       </c>
@@ -1543,7 +1530,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1617,7 +1604,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1691,7 +1678,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1765,7 +1752,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1839,7 +1826,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1913,7 +1900,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1987,7 +1974,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2061,7 +2048,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2135,7 +2122,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2209,7 +2196,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2283,7 +2270,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2357,7 +2344,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2431,7 +2418,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2505,7 +2492,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>9</v>
       </c>
@@ -105178,11 +105165,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1410" xr:uid="{ECC762EC-FCE7-462E-8362-B27D07F6A281}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V1410">
-      <sortCondition ref="N2"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -105428,13 +105410,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A53D174-CAA8-4D1A-98B1-96B35D622035}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A53D174-CAA8-4D1A-98B1-96B35D622035}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EC38B2-8722-419E-A81C-0F3DABED0B40}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EC38B2-8722-419E-A81C-0F3DABED0B40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10FB6507-9C86-4E2E-B9D4-D846F8B3832C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10FB6507-9C86-4E2E-B9D4-D846F8B3832C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>